--- a/cx.xlsx
+++ b/cx.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,40 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>关于准予撤销上海市徐汇区柳州路邮政所的公告</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202512/be58981880de42c7822366e7faabd2cb.shtml</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>关于准予撤销上海市松江区达丰邮政所的公告</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202510/e5a44a5099d1476fa0e479b321267ac3.shtml</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cx.xlsx
+++ b/cx.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,40 +438,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>关于准予撤销上海市徐汇区柳州路邮政所的公告</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202512/be58981880de42c7822366e7faabd2cb.shtml</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>关于准予撤销上海市松江区达丰邮政所的公告</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202510/e5a44a5099d1476fa0e479b321267ac3.shtml</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cx.xlsx
+++ b/cx.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,57 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>关于准予撤销上海市嘉定区朱家桥邮政支局的公告</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202512/b487344d328e4d2fa163d4fe9a0fe502.shtml</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>关于准予撤销上海市徐汇区柳州路邮政所的公告</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202512/be58981880de42c7822366e7faabd2cb.shtml</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>关于准予撤销上海市松江区达丰邮政所的公告</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202510/e5a44a5099d1476fa0e479b321267ac3.shtml</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cx.xlsx
+++ b/cx.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,57 +438,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>关于准予撤销上海市嘉定区朱家桥邮政支局的公告</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-05</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202512/b487344d328e4d2fa163d4fe9a0fe502.shtml</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>关于准予撤销上海市徐汇区柳州路邮政所的公告</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202512/be58981880de42c7822366e7faabd2cb.shtml</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>关于准予撤销上海市松江区达丰邮政所的公告</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202510/e5a44a5099d1476fa0e479b321267ac3.shtml</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cx.xlsx
+++ b/cx.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,40 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>关于准予撤销上海市嘉定区朱家桥邮政支局的公告</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202512/b487344d328e4d2fa163d4fe9a0fe502.shtml</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>关于准予撤销上海市徐汇区柳州路邮政所的公告</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202512/be58981880de42c7822366e7faabd2cb.shtml</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cx.xlsx
+++ b/cx.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,40 +438,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>关于准予撤销上海市嘉定区朱家桥邮政支局的公告</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-05</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202512/b487344d328e4d2fa163d4fe9a0fe502.shtml</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>关于准予撤销上海市徐汇区柳州路邮政所的公告</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://sh.spb.gov.cn/shsyzglj/c100057/c100058/202512/be58981880de42c7822366e7faabd2cb.shtml</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
